--- a/attached_assets/TRANSPORTE TERRESTRE x CNTR = 1x20GP 1x40GP 1x40HC x CIUDAD DE ENTREGA_1763849573661.xlsx
+++ b/attached_assets/TRANSPORTE TERRESTRE x CNTR = 1x20GP 1x40GP 1x40HC x CIUDAD DE ENTREGA_1763849573661.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abenincasa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\proyectos\clone_ag__prueba_pytoflutter_importayaia_v2\referencia-ImportaYAia-python\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{564438A8-5F30-4C0D-8066-1089AC29979A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C5D168-4DEB-4163-B5A0-DFD4483A2DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D647B98A-143D-4432-95DC-8DAE1668035F}"/>
   </bookViews>
@@ -230,6 +230,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -238,15 +247,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,6 +582,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0153AB28-CB22-45CE-B932-C87F7B0CD683}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -596,20 +599,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -617,7 +620,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>275</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -628,7 +631,7 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>585</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -639,7 +642,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>595</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -650,7 +653,7 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>785</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -661,7 +664,7 @@
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>895</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -672,7 +675,7 @@
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>1150</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -683,6 +686,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>